--- a/files/database_home.xlsx
+++ b/files/database_home.xlsx
@@ -638,7 +638,7 @@
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,13 +689,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D2" s="8">
         <v>44439</v>
@@ -707,30 +707,30 @@
         <v>13</v>
       </c>
       <c r="G2" s="6" t="str">
-        <f t="shared" ref="G2:G16" si="0">CONCATENATE("/database/",A2)</f>
-        <v>/database/MF_m_01</v>
-      </c>
-      <c r="H2" s="9" t="str">
-        <f t="shared" ref="H2:H16" si="1">CONCATENATE("/database/",A2,"/download")</f>
-        <v>/database/MF_m_01/download</v>
+        <f>CONCATENATE("/database/",A2)</f>
+        <v>/database/EQ_m_01</v>
+      </c>
+      <c r="H2" s="11" t="str">
+        <f>CONCATENATE("/database/",A2,"/download")</f>
+        <v>/database/EQ_m_01/download</v>
       </c>
       <c r="I2" s="9" t="str">
-        <f t="shared" ref="I2:I16" si="2">CONCATENATE("/database/",A2,"/download")</f>
-        <v>/database/MF_m_01/download</v>
+        <f>CONCATENATE("/database/",A2,"/download")</f>
+        <v>/database/EQ_m_01/download</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D3" s="8">
         <v>44439</v>
@@ -742,415 +742,415 @@
         <v>13</v>
       </c>
       <c r="G3" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>/database/MF_m_02</v>
-      </c>
-      <c r="H3" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>/database/MF_m_02/download</v>
+        <f>CONCATENATE("/database/",A3)</f>
+        <v>/database/EQ_m_02</v>
+      </c>
+      <c r="H3" s="11" t="str">
+        <f>CONCATENATE("/database/",A3,"/download")</f>
+        <v>/database/EQ_m_02/download</v>
       </c>
       <c r="I3" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>/database/MF_m_02/download</v>
+        <f>CONCATENATE("/database/",A3,"/download")</f>
+        <v>/database/EQ_m_02/download</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="8">
+        <v>44439</v>
+      </c>
+      <c r="E4" s="8">
+        <v>45382</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="str">
+        <f>CONCATENATE("/database/",A4)</f>
+        <v>/database/ED_m_01</v>
+      </c>
+      <c r="H4" s="11" t="str">
+        <f>CONCATENATE("/database/",A4,"/download")</f>
+        <v>/database/ED_m_01/download</v>
+      </c>
+      <c r="I4" s="9" t="str">
+        <f>CONCATENATE("/database/",A4,"/download")</f>
+        <v>/database/ED_m_01/download</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8">
+        <v>44439</v>
+      </c>
+      <c r="E5" s="8">
+        <v>45382</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6" t="str">
+        <f>CONCATENATE("/database/",A5)</f>
+        <v>/database/MF_m_02</v>
+      </c>
+      <c r="H5" s="9" t="str">
+        <f>CONCATENATE("/database/",A5,"/download")</f>
+        <v>/database/MF_m_02/download</v>
+      </c>
+      <c r="I5" s="9" t="str">
+        <f>CONCATENATE("/database/",A5,"/download")</f>
+        <v>/database/MF_m_02/download</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8">
+        <v>44439</v>
+      </c>
+      <c r="E6" s="8">
+        <v>45382</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="str">
+        <f t="shared" ref="G6:G14" si="0">CONCATENATE("/database/",A6)</f>
+        <v>/database/MF_m_01</v>
+      </c>
+      <c r="H6" s="9" t="str">
+        <f t="shared" ref="H6:H14" si="1">CONCATENATE("/database/",A6,"/download")</f>
+        <v>/database/MF_m_01/download</v>
+      </c>
+      <c r="I6" s="9" t="str">
+        <f t="shared" ref="I6:I14" si="2">CONCATENATE("/database/",A6,"/download")</f>
+        <v>/database/MF_m_01/download</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8">
-        <v>44439</v>
-      </c>
-      <c r="E4" s="8">
-        <v>45382</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="6" t="str">
+      <c r="D7" s="8">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="8">
+        <v>45382</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>/database/MF_m_03</v>
       </c>
-      <c r="H4" s="9" t="str">
+      <c r="H7" s="9" t="str">
         <f t="shared" si="1"/>
         <v>/database/MF_m_03/download</v>
       </c>
-      <c r="I4" s="9" t="str">
+      <c r="I7" s="9" t="str">
         <f t="shared" si="2"/>
         <v>/database/MF_m_03/download</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8">
-        <v>44439</v>
-      </c>
-      <c r="E5" s="8">
-        <v>45382</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="6" t="str">
+      <c r="D8" s="8">
+        <v>44439</v>
+      </c>
+      <c r="E8" s="8">
+        <v>45382</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>/database/MF_m_04</v>
       </c>
-      <c r="H5" s="9" t="str">
+      <c r="H8" s="9" t="str">
         <f t="shared" si="1"/>
         <v>/database/MF_m_04/download</v>
       </c>
-      <c r="I5" s="9" t="str">
+      <c r="I8" s="9" t="str">
         <f t="shared" si="2"/>
         <v>/database/MF_m_04/download</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8">
-        <v>44439</v>
-      </c>
-      <c r="E6" s="8">
-        <v>45382</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>/database/PM_m_01</v>
-      </c>
-      <c r="H6" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>/database/PM_m_01/download</v>
-      </c>
-      <c r="I6" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>/database/PM_m_01/download</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="8">
-        <v>44439</v>
-      </c>
-      <c r="E7" s="8">
-        <v>45382</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>/database/PM_m_02</v>
-      </c>
-      <c r="H7" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>/database/PM_m_02/download</v>
-      </c>
-      <c r="I7" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>/database/PM_m_02/download</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="8">
-        <v>44439</v>
-      </c>
-      <c r="E8" s="8">
-        <v>45382</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6" t="str">
+      <c r="D9" s="8">
+        <v>44439</v>
+      </c>
+      <c r="E9" s="8">
+        <v>45382</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>/database/PM_m_03</v>
       </c>
-      <c r="H8" s="10" t="str">
+      <c r="H9" s="10" t="str">
         <f t="shared" si="1"/>
         <v>/database/PM_m_03/download</v>
       </c>
-      <c r="I8" s="9" t="str">
+      <c r="I9" s="9" t="str">
         <f t="shared" si="2"/>
         <v>/database/PM_m_03/download</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="8">
-        <v>44439</v>
-      </c>
-      <c r="E9" s="8">
-        <v>45382</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="6" t="str">
+      <c r="D10" s="8">
+        <v>44439</v>
+      </c>
+      <c r="E10" s="8">
+        <v>45382</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>/database/PM_m_04</v>
       </c>
-      <c r="H9" s="10" t="str">
+      <c r="H10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>/database/PM_m_04/download</v>
       </c>
-      <c r="I9" s="9" t="str">
+      <c r="I10" s="9" t="str">
         <f t="shared" si="2"/>
         <v>/database/PM_m_04/download</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="8">
-        <v>44439</v>
-      </c>
-      <c r="E10" s="8">
-        <v>45382</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="6" t="str">
+      <c r="D11" s="8">
+        <v>44439</v>
+      </c>
+      <c r="E11" s="8">
+        <v>45382</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>/database/PM_m_05</v>
       </c>
-      <c r="H10" s="10" t="str">
+      <c r="H11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>/database/PM_m_05/download</v>
       </c>
-      <c r="I10" s="9" t="str">
+      <c r="I11" s="9" t="str">
         <f t="shared" si="2"/>
         <v>/database/PM_m_05/download</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="8">
-        <v>44439</v>
-      </c>
-      <c r="E11" s="8">
-        <v>45382</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="6" t="str">
+      <c r="D12" s="8">
+        <v>44439</v>
+      </c>
+      <c r="E12" s="8">
+        <v>45382</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>/database/PM_m_06</v>
       </c>
-      <c r="H11" s="10" t="str">
+      <c r="H12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>/database/PM_m_06/download</v>
       </c>
-      <c r="I11" s="9" t="str">
+      <c r="I12" s="9" t="str">
         <f t="shared" si="2"/>
         <v>/database/PM_m_06/download</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="8">
-        <v>44439</v>
-      </c>
-      <c r="E12" s="8">
-        <v>45382</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="6" t="str">
+      <c r="D13" s="8">
+        <v>44439</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45382</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>/database/PM_m_07</v>
       </c>
-      <c r="H12" s="10" t="str">
+      <c r="H13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>/database/PM_m_07/download</v>
       </c>
-      <c r="I12" s="9" t="str">
+      <c r="I13" s="9" t="str">
         <f t="shared" si="2"/>
         <v>/database/PM_m_07/download</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="8">
-        <v>44439</v>
-      </c>
-      <c r="E13" s="8">
-        <v>45382</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="6" t="str">
+      <c r="D14" s="8">
+        <v>44439</v>
+      </c>
+      <c r="E14" s="8">
+        <v>45382</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>/database/PM_m_08</v>
       </c>
-      <c r="H13" s="10" t="str">
+      <c r="H14" s="10" t="str">
         <f t="shared" si="1"/>
         <v>/database/PM_m_08/download</v>
       </c>
-      <c r="I13" s="9" t="str">
+      <c r="I14" s="9" t="str">
         <f t="shared" si="2"/>
         <v>/database/PM_m_08/download</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="8">
-        <v>44439</v>
-      </c>
-      <c r="E14" s="8">
-        <v>45382</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>/database/ED_m_01</v>
-      </c>
-      <c r="H14" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>/database/ED_m_01/download</v>
-      </c>
-      <c r="I14" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>/database/ED_m_01/download</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D15" s="8">
         <v>44439</v>
@@ -1162,30 +1162,30 @@
         <v>13</v>
       </c>
       <c r="G15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>/database/EQ_m_01</v>
-      </c>
-      <c r="H15" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>/database/EQ_m_01/download</v>
+        <f>CONCATENATE("/database/",A15)</f>
+        <v>/database/PM_m_01</v>
+      </c>
+      <c r="H15" s="10" t="str">
+        <f>CONCATENATE("/database/",A15,"/download")</f>
+        <v>/database/PM_m_01/download</v>
       </c>
       <c r="I15" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>/database/EQ_m_01/download</v>
+        <f>CONCATENATE("/database/",A15,"/download")</f>
+        <v>/database/PM_m_01/download</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D16" s="8">
         <v>44439</v>
@@ -1197,19 +1197,19 @@
         <v>13</v>
       </c>
       <c r="G16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>/database/EQ_m_02</v>
-      </c>
-      <c r="H16" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>/database/EQ_m_02/download</v>
+        <f>CONCATENATE("/database/",A16)</f>
+        <v>/database/PM_m_02</v>
+      </c>
+      <c r="H16" s="10" t="str">
+        <f>CONCATENATE("/database/",A16,"/download")</f>
+        <v>/database/PM_m_02/download</v>
       </c>
       <c r="I16" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>/database/EQ_m_02/download</v>
+        <f>CONCATENATE("/database/",A16,"/download")</f>
+        <v>/database/PM_m_02/download</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
